--- a/Costura Externa/Root/planilha de pagamento costura externa.xlsx
+++ b/Costura Externa/Root/planilha de pagamento costura externa.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55219\OneDrive\Documentos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{9E83D309-713D-4337-BEBD-99C879BE09DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E20F8C0B-CB60-47E2-B07A-EFAF011F49AE}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1F68C75D-AA2C-497C-8267-BF9DC9CFDE21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t xml:space="preserve">                                         PLANILHA DE PAGAMENTO DA COSTURA EXTERNA                                                                                 </t>
   </si>
@@ -164,15 +158,6 @@
     <t>0023250-2</t>
   </si>
   <si>
-    <t>TERESA CRISTINA PEREIRA FERREIRA (ANDRÉ)</t>
-  </si>
-  <si>
-    <t>000.600.317-60</t>
-  </si>
-  <si>
-    <t>0203</t>
-  </si>
-  <si>
     <t>LÍDIA DANIELLE SILVA CARVALHO</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>0001813-5</t>
   </si>
   <si>
-    <t>0119058-5</t>
-  </si>
-  <si>
     <t>LUCIMARA VENDRAMINI (ELIANE)</t>
   </si>
   <si>
@@ -270,13 +252,19 @@
   </si>
   <si>
     <t>9249350-1</t>
+  </si>
+  <si>
+    <t>ANDRE RICARDO PEREIRA FERREIRA</t>
+  </si>
+  <si>
+    <t>DAILANE DE SOUSA LIMA CUSTÓDIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -470,6 +458,130 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -477,9 +589,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -488,9 +598,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -501,9 +609,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -514,9 +620,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -529,9 +633,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -544,9 +646,29 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -555,64 +677,29 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -621,13 +708,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -651,14 +734,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -670,20 +749,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,7 +878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -798,7 +930,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -992,21 +1124,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3361911-D081-4E21-81D1-60CE5DDC3470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
@@ -1015,580 +1147,612 @@
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="18">
         <v>6124</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="18" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="18" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="18" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="18" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="18" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="H17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A21" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M25" s="2"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="M25" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
